--- a/biology/Biologie cellulaire et moléculaire/Récepteur_de_mort/Récepteur_de_mort.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_de_mort/Récepteur_de_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_mort</t>
+          <t>Récepteur_de_mort</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les récepteurs de mort sont des récepteurs cellulaires qui induisent l'apoptose lorsqu'ils sont activés par leurs ligands. 
 Le signal de mort cellulaire est médié par des facteurs solubles comme FasL, le TRAIL ou DR, TNF-α, la perforine, la granzyme B. Ils vont activer des mécanismes intracellulaires mettant en jeu les caspases.
@@ -490,7 +502,7 @@
 TNFR1 qui lie à TNF-a
 DR3 / APO-3 / SWL-1 / TRAMP qui lie à APO3L
 DR4 / TRAIL-R1 qui lie à APO2L / TRAIL
-DR5 / TRAIL-R2 / KILLER qui lie à APO2L / TRAIL[1]</t>
+DR5 / TRAIL-R2 / KILLER qui lie à APO2L / TRAIL</t>
         </is>
       </c>
     </row>
